--- a/Salary/W3 Salaries and Tasks.xlsx
+++ b/Salary/W3 Salaries and Tasks.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feita\ETH Group\Lectures\HCI WS 18\HCI-fall-2018-project-page\Salary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MiroETH/Documents/ETH/Semester_5/Human_Computer_Interaction_Hilliges_252-3110-00/Exercises/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="8085" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -36,21 +36,6 @@
   </si>
   <si>
     <t>Total Number of Team Members</t>
-  </si>
-  <si>
-    <t>Member 1</t>
-  </si>
-  <si>
-    <t>Member 2</t>
-  </si>
-  <si>
-    <t>Member 3</t>
-  </si>
-  <si>
-    <t>Member 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member 5 </t>
   </si>
   <si>
     <t xml:space="preserve">Total salary distributed </t>
@@ -152,11 +137,53 @@
 Verify accuracy of all information.</t>
     </r>
   </si>
+  <si>
+    <t>Roger Baumgartner</t>
+  </si>
+  <si>
+    <t>Tim Matter</t>
+  </si>
+  <si>
+    <t>Jules Bachmann</t>
+  </si>
+  <si>
+    <t>Miro Haller</t>
+  </si>
+  <si>
+    <t>Jan Urech</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Project specification, problem resolving with Tas</t>
+  </si>
+  <si>
+    <t>Update git readme</t>
+  </si>
+  <si>
+    <t>Ideation</t>
+  </si>
+  <si>
+    <t>Find requirements</t>
+  </si>
+  <si>
+    <t>Contact stakeholder</t>
+  </si>
+  <si>
+    <t>Arrange user meetings</t>
+  </si>
+  <si>
+    <t>Prepare presentation</t>
+  </si>
+  <si>
+    <t>Group 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -583,149 +610,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B14" s="8">
-        <f>SUM(B8:B12)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8">
+        <f>B5*100-B14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="8">
-        <f>B5*300-B14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="50" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
     </row>
